--- a/TSN_JAVA_POI_XLSX_linux_2020/test.xlsx
+++ b/TSN_JAVA_POI_XLSX_linux_2020/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="36">
   <si>
     <t>Cell 0 0</t>
   </si>
